--- a/www.eia.gov/electricity/monthly/xls/table_4_09_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_09_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
-  <si>
-    <t>Table 4.9.A. Receipts of Natural Gas Delivered for Electricity Generation by State, October 2016 and 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+  <si>
+    <t>Table 4.9.A. Receipts of Natural Gas Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Million Cubic Feet)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>North Dakota</t>
+  </si>
+  <si>
+    <t>NM</t>
   </si>
   <si>
     <t>South Dakota</t>
@@ -1356,25 +1359,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>25160</v>
+        <v>24247</v>
       </c>
       <c r="C6" s="13">
-        <v>32477</v>
+        <v>24972</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.23</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E6" s="13">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F6" s="13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="13">
-        <v>25115</v>
+        <v>24229</v>
       </c>
       <c r="H6" s="13">
-        <v>32416</v>
+        <v>24912</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1394,13 +1397,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>9252</v>
+        <v>9461</v>
       </c>
       <c r="C7" s="16">
-        <v>10102</v>
+        <v>9530</v>
       </c>
       <c r="D7" s="17">
-        <v>-8.4000000000000005E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>9252</v>
+        <v>9461</v>
       </c>
       <c r="H7" s="16">
-        <v>10102</v>
+        <v>9530</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1435,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>1792</v>
+        <v>1128</v>
       </c>
       <c r="C8" s="16">
-        <v>2518</v>
+        <v>1812</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.28999999999999998</v>
+        <v>-0.38</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>1792</v>
+        <v>1128</v>
       </c>
       <c r="H8" s="16">
-        <v>2518</v>
+        <v>1812</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -1470,25 +1473,25 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>8795</v>
+        <v>7674</v>
       </c>
       <c r="C9" s="16">
-        <v>12624</v>
+        <v>7701</v>
       </c>
       <c r="D9" s="17">
-        <v>-0.3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E9" s="16">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F9" s="16">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G9" s="16">
-        <v>8751</v>
+        <v>7657</v>
       </c>
       <c r="H9" s="16">
-        <v>12563</v>
+        <v>7674</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1508,25 +1511,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>2365</v>
+        <v>3080</v>
       </c>
       <c r="C10" s="16">
-        <v>3376</v>
+        <v>3796</v>
       </c>
       <c r="D10" s="17">
-        <v>-0.3</v>
+        <v>-0.19</v>
       </c>
       <c r="E10" s="16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G10" s="16">
-        <v>2365</v>
+        <v>3080</v>
       </c>
       <c r="H10" s="16">
-        <v>3375</v>
+        <v>3764</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1546,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="16">
-        <v>2955</v>
+        <v>2903</v>
       </c>
       <c r="C11" s="16">
-        <v>3857</v>
+        <v>2132</v>
       </c>
       <c r="D11" s="17">
-        <v>-0.23</v>
+        <v>0.36</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1561,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>2955</v>
+        <v>2903</v>
       </c>
       <c r="H11" s="16">
-        <v>3857</v>
+        <v>2132</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -1622,25 +1625,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>93044</v>
+        <v>81692</v>
       </c>
       <c r="C13" s="13">
-        <v>94735</v>
+        <v>86176</v>
       </c>
       <c r="D13" s="14">
-        <v>-1.7999999999999999E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>5993</v>
+        <v>5540</v>
       </c>
       <c r="F13" s="13">
-        <v>7568</v>
+        <v>7370</v>
       </c>
       <c r="G13" s="13">
-        <v>86822</v>
+        <v>75793</v>
       </c>
       <c r="H13" s="13">
-        <v>86983</v>
+        <v>78663</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1649,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="L13" s="13">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,13 +1663,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>26222</v>
+        <v>18871</v>
       </c>
       <c r="C14" s="16">
-        <v>22816</v>
+        <v>22567</v>
       </c>
       <c r="D14" s="17">
-        <v>0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1675,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>26222</v>
+        <v>18871</v>
       </c>
       <c r="H14" s="16">
-        <v>22816</v>
+        <v>22567</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1698,25 +1701,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>28828</v>
+        <v>25444</v>
       </c>
       <c r="C15" s="16">
-        <v>35598</v>
+        <v>29293</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.19</v>
+        <v>-0.13</v>
       </c>
       <c r="E15" s="16">
-        <v>5993</v>
+        <v>5540</v>
       </c>
       <c r="F15" s="16">
-        <v>7568</v>
+        <v>7370</v>
       </c>
       <c r="G15" s="16">
-        <v>22749</v>
+        <v>19796</v>
       </c>
       <c r="H15" s="16">
-        <v>27953</v>
+        <v>21875</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1725,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="L15" s="16">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,13 +1739,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>37993</v>
+        <v>37377</v>
       </c>
       <c r="C16" s="16">
-        <v>36322</v>
+        <v>34316</v>
       </c>
       <c r="D16" s="17">
-        <v>4.5999999999999999E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1751,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>37851</v>
+        <v>37125</v>
       </c>
       <c r="H16" s="16">
-        <v>36214</v>
+        <v>34222</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1763,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="L16" s="16">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,37 +1777,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>58048</v>
+        <v>59579</v>
       </c>
       <c r="C17" s="13">
-        <v>48992</v>
+        <v>54021</v>
       </c>
       <c r="D17" s="14">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="13">
-        <v>23442</v>
+        <v>24068</v>
       </c>
       <c r="F17" s="13">
-        <v>22483</v>
+        <v>25544</v>
       </c>
       <c r="G17" s="13">
-        <v>32971</v>
+        <v>33712</v>
       </c>
       <c r="H17" s="13">
-        <v>25357</v>
+        <v>27016</v>
       </c>
       <c r="I17" s="13">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="J17" s="13">
-        <v>428</v>
+        <v>679</v>
       </c>
       <c r="K17" s="13">
-        <v>1151</v>
+        <v>1302</v>
       </c>
       <c r="L17" s="13">
-        <v>725</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,25 +1815,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>10912</v>
+        <v>7557</v>
       </c>
       <c r="C18" s="16">
-        <v>5778</v>
+        <v>6306</v>
       </c>
       <c r="D18" s="17">
-        <v>0.89</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="16">
-        <v>806</v>
+        <v>405</v>
       </c>
       <c r="F18" s="16">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G18" s="16">
-        <v>10106</v>
+        <v>7146</v>
       </c>
       <c r="H18" s="16">
-        <v>5562</v>
+        <v>6095</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1839,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,25 +1853,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>10735</v>
+        <v>12931</v>
       </c>
       <c r="C19" s="16">
-        <v>8046</v>
+        <v>10784</v>
       </c>
       <c r="D19" s="17">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="E19" s="16">
-        <v>9520</v>
+        <v>10827</v>
       </c>
       <c r="F19" s="16">
-        <v>6213</v>
+        <v>8185</v>
       </c>
       <c r="G19" s="16">
-        <v>1216</v>
+        <v>2103</v>
       </c>
       <c r="H19" s="16">
-        <v>1834</v>
+        <v>2599</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -1888,37 +1891,37 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>16866</v>
+        <v>16853</v>
       </c>
       <c r="C20" s="16">
-        <v>14297</v>
+        <v>13565</v>
       </c>
       <c r="D20" s="17">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E20" s="16">
-        <v>5591</v>
+        <v>4314</v>
       </c>
       <c r="F20" s="16">
-        <v>5382</v>
+        <v>4777</v>
       </c>
       <c r="G20" s="16">
-        <v>10342</v>
+        <v>11530</v>
       </c>
       <c r="H20" s="16">
-        <v>8083</v>
+        <v>7661</v>
       </c>
       <c r="I20" s="16">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="J20" s="16">
-        <v>428</v>
+        <v>679</v>
       </c>
       <c r="K20" s="16">
+        <v>512</v>
+      </c>
+      <c r="L20" s="16">
         <v>448</v>
-      </c>
-      <c r="L20" s="16">
-        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,25 +1929,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>14278</v>
+        <v>15693</v>
       </c>
       <c r="C21" s="16">
-        <v>13448</v>
+        <v>15605</v>
       </c>
       <c r="D21" s="17">
-        <v>6.2E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E21" s="16">
-        <v>3286</v>
+        <v>2909</v>
       </c>
       <c r="F21" s="16">
-        <v>4146</v>
+        <v>5350</v>
       </c>
       <c r="G21" s="16">
-        <v>10673</v>
+        <v>12424</v>
       </c>
       <c r="H21" s="16">
-        <v>9264</v>
+        <v>10163</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1953,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="L21" s="16">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,25 +1967,25 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>5256</v>
+        <v>6545</v>
       </c>
       <c r="C22" s="16">
-        <v>7423</v>
+        <v>7762</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.28999999999999998</v>
+        <v>-0.16</v>
       </c>
       <c r="E22" s="16">
-        <v>4239</v>
+        <v>5613</v>
       </c>
       <c r="F22" s="16">
-        <v>6528</v>
+        <v>7027</v>
       </c>
       <c r="G22" s="16">
-        <v>633</v>
+        <v>508</v>
       </c>
       <c r="H22" s="16">
-        <v>613</v>
+        <v>498</v>
       </c>
       <c r="I22" s="16">
         <v>0</v>
@@ -1991,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="L22" s="16">
-        <v>281</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,37 +2005,37 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>11001</v>
+        <v>9756</v>
       </c>
       <c r="C23" s="13">
-        <v>7195</v>
+        <v>6720</v>
       </c>
       <c r="D23" s="14">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="E23" s="13">
-        <v>9750</v>
+        <v>8689</v>
       </c>
       <c r="F23" s="13">
-        <v>6558</v>
+        <v>5867</v>
       </c>
       <c r="G23" s="13">
-        <v>883</v>
+        <v>708</v>
       </c>
       <c r="H23" s="13">
-        <v>541</v>
+        <v>771</v>
       </c>
       <c r="I23" s="13">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J23" s="13">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K23" s="13">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L23" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,19 +2043,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>2793</v>
+        <v>2082</v>
       </c>
       <c r="C24" s="16">
-        <v>1631</v>
+        <v>447</v>
       </c>
       <c r="D24" s="17">
-        <v>0.71</v>
+        <v>3.66</v>
       </c>
       <c r="E24" s="16">
-        <v>2516</v>
+        <v>1815</v>
       </c>
       <c r="F24" s="16">
-        <v>1631</v>
+        <v>445</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2067,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="16">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L24" s="16">
-        <v>0.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2078,19 +2081,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>1058</v>
+        <v>1180</v>
       </c>
       <c r="C25" s="16">
-        <v>435</v>
+        <v>578</v>
       </c>
       <c r="D25" s="17">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="E25" s="16">
-        <v>1058</v>
+        <v>1180</v>
       </c>
       <c r="F25" s="16">
-        <v>435</v>
+        <v>578</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2116,25 +2119,25 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>3260</v>
+        <v>3239</v>
       </c>
       <c r="C26" s="16">
-        <v>3244</v>
+        <v>3009</v>
       </c>
       <c r="D26" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E26" s="16">
-        <v>2376</v>
+        <v>2781</v>
       </c>
       <c r="F26" s="16">
-        <v>2929</v>
+        <v>2703</v>
       </c>
       <c r="G26" s="16">
-        <v>883</v>
+        <v>457</v>
       </c>
       <c r="H26" s="16">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I26" s="16">
         <v>1</v>
@@ -2154,31 +2157,31 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>2827</v>
+        <v>2022</v>
       </c>
       <c r="C27" s="16">
-        <v>1498</v>
+        <v>2130</v>
       </c>
       <c r="D27" s="17">
-        <v>0.89</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="E27" s="16">
-        <v>2737</v>
+        <v>1680</v>
       </c>
       <c r="F27" s="16">
-        <v>1177</v>
+        <v>1596</v>
       </c>
       <c r="G27" s="16">
-        <v>0.48</v>
+        <v>251</v>
       </c>
       <c r="H27" s="16">
-        <v>228</v>
+        <v>465</v>
       </c>
       <c r="I27" s="16">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J27" s="16">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
@@ -2192,19 +2195,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>389</v>
+        <v>560</v>
       </c>
       <c r="C28" s="16">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D28" s="17">
-        <v>3.02</v>
+        <v>3.07</v>
       </c>
       <c r="E28" s="16">
-        <v>389</v>
+        <v>560</v>
       </c>
       <c r="F28" s="16">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2222,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>0.06</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,19 +2233,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="C29" s="16">
-        <v>30</v>
-      </c>
-      <c r="D29" s="17">
-        <v>8.17</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="E29" s="16">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="F29" s="16">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2265,22 +2268,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="16">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="C30" s="16">
-        <v>260</v>
+        <v>413</v>
       </c>
       <c r="D30" s="17">
-        <v>0.53</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E30" s="16">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="F30" s="16">
-        <v>260</v>
+        <v>413</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2303,28 +2306,28 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="13">
-        <v>182191</v>
+        <v>164049</v>
       </c>
       <c r="C31" s="13">
-        <v>180454</v>
+        <v>176753</v>
       </c>
       <c r="D31" s="14">
-        <v>0.01</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>147151</v>
+        <v>138132</v>
       </c>
       <c r="F31" s="13">
-        <v>148747</v>
+        <v>142010</v>
       </c>
       <c r="G31" s="13">
-        <v>31059</v>
+        <v>22147</v>
       </c>
       <c r="H31" s="13">
-        <v>28619</v>
+        <v>31218</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2333,24 +2336,24 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <v>3981</v>
+        <v>3770</v>
       </c>
       <c r="L31" s="13">
-        <v>3088</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="16">
-        <v>6366</v>
+        <v>4435</v>
       </c>
       <c r="C32" s="16">
-        <v>3511</v>
+        <v>3026</v>
       </c>
       <c r="D32" s="17">
-        <v>0.81</v>
+        <v>0.47</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2359,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>5038</v>
+        <v>3307</v>
       </c>
       <c r="H32" s="16">
-        <v>2621</v>
+        <v>2087</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2371,15 +2374,15 @@
         <v>0</v>
       </c>
       <c r="K32" s="16">
-        <v>1328</v>
+        <v>1128</v>
       </c>
       <c r="L32" s="16">
-        <v>890</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="16">
         <v>0</v>
@@ -2417,28 +2420,28 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="16">
-        <v>94781</v>
+        <v>74153</v>
       </c>
       <c r="C34" s="16">
-        <v>97260</v>
+        <v>87084</v>
       </c>
       <c r="D34" s="17">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="E34" s="16">
-        <v>89699</v>
+        <v>70457</v>
       </c>
       <c r="F34" s="16">
-        <v>91351</v>
+        <v>79941</v>
       </c>
       <c r="G34" s="16">
-        <v>5083</v>
+        <v>3696</v>
       </c>
       <c r="H34" s="16">
-        <v>5795</v>
+        <v>7047</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2450,33 +2453,33 @@
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>27025</v>
+        <v>24796</v>
       </c>
       <c r="C35" s="16">
-        <v>30777</v>
+        <v>28866</v>
       </c>
       <c r="D35" s="17">
-        <v>-0.12</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E35" s="16">
-        <v>21516</v>
+        <v>20538</v>
       </c>
       <c r="F35" s="16">
-        <v>20894</v>
+        <v>20510</v>
       </c>
       <c r="G35" s="16">
-        <v>4562</v>
+        <v>3404</v>
       </c>
       <c r="H35" s="16">
-        <v>8762</v>
+        <v>7111</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,24 +2488,24 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>946</v>
+        <v>853</v>
       </c>
       <c r="L35" s="16">
-        <v>1121</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="16">
-        <v>3230</v>
+        <v>521</v>
       </c>
       <c r="C36" s="16">
-        <v>2763</v>
+        <v>3006</v>
       </c>
       <c r="D36" s="17">
-        <v>0.17</v>
+        <v>-0.83</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>3077</v>
+        <v>348</v>
       </c>
       <c r="H36" s="16">
-        <v>2738</v>
+        <v>2954</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2523,36 +2526,36 @@
         <v>0</v>
       </c>
       <c r="K36" s="16">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L36" s="16">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="16">
-        <v>18534</v>
+        <v>23747</v>
       </c>
       <c r="C37" s="16">
-        <v>19631</v>
+        <v>22634</v>
       </c>
       <c r="D37" s="17">
-        <v>-5.6000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E37" s="16">
-        <v>14660</v>
+        <v>22124</v>
       </c>
       <c r="F37" s="16">
-        <v>16721</v>
+        <v>20941</v>
       </c>
       <c r="G37" s="16">
-        <v>3873</v>
+        <v>1623</v>
       </c>
       <c r="H37" s="16">
-        <v>2435</v>
+        <v>1218</v>
       </c>
       <c r="I37" s="16">
         <v>0</v>
@@ -2569,28 +2572,28 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="16">
-        <v>10768</v>
+        <v>13314</v>
       </c>
       <c r="C38" s="16">
-        <v>12485</v>
+        <v>13703</v>
       </c>
       <c r="D38" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="E38" s="16">
-        <v>9610</v>
+        <v>8865</v>
       </c>
       <c r="F38" s="16">
-        <v>11834</v>
+        <v>12085</v>
       </c>
       <c r="G38" s="16">
-        <v>1011</v>
+        <v>4338</v>
       </c>
       <c r="H38" s="16">
-        <v>585</v>
+        <v>1546</v>
       </c>
       <c r="I38" s="16">
         <v>0</v>
@@ -2599,36 +2602,36 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="L38" s="16">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>19140</v>
+        <v>21980</v>
       </c>
       <c r="C39" s="16">
-        <v>12481</v>
+        <v>17695</v>
       </c>
       <c r="D39" s="17">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
       <c r="E39" s="16">
-        <v>11570</v>
+        <v>16025</v>
       </c>
       <c r="F39" s="16">
-        <v>7924</v>
+        <v>8504</v>
       </c>
       <c r="G39" s="16">
-        <v>6823</v>
+        <v>5169</v>
       </c>
       <c r="H39" s="16">
-        <v>4161</v>
+        <v>8544</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2637,36 +2640,36 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>747</v>
+        <v>785</v>
       </c>
       <c r="L39" s="16">
-        <v>396</v>
+        <v>648</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" s="16">
-        <v>2347</v>
+        <v>1104</v>
       </c>
       <c r="C40" s="16">
-        <v>1547</v>
+        <v>739</v>
       </c>
       <c r="D40" s="17">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="E40" s="16">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F40" s="16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G40" s="16">
-        <v>1591</v>
+        <v>260</v>
       </c>
       <c r="H40" s="16">
-        <v>1522</v>
+        <v>712</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2675,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="16">
-        <v>660</v>
+        <v>721</v>
       </c>
       <c r="L40" s="16">
         <v>0</v>
@@ -2683,28 +2686,28 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="13">
-        <v>71379</v>
+        <v>63160</v>
       </c>
       <c r="C41" s="13">
-        <v>64065</v>
+        <v>68849</v>
       </c>
       <c r="D41" s="14">
-        <v>0.11</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>48025</v>
+        <v>40707</v>
       </c>
       <c r="F41" s="13">
-        <v>39317</v>
+        <v>44707</v>
       </c>
       <c r="G41" s="13">
-        <v>22324</v>
+        <v>21094</v>
       </c>
       <c r="H41" s="13">
-        <v>23847</v>
+        <v>23218</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2713,36 +2716,36 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>1030</v>
+        <v>1359</v>
       </c>
       <c r="L41" s="13">
-        <v>900</v>
+        <v>924</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" s="16">
-        <v>30798</v>
+        <v>29325</v>
       </c>
       <c r="C42" s="16">
-        <v>29954</v>
+        <v>29903</v>
       </c>
       <c r="D42" s="17">
-        <v>2.8000000000000001E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E42" s="16">
-        <v>8548</v>
+        <v>8428</v>
       </c>
       <c r="F42" s="16">
-        <v>7420</v>
+        <v>9071</v>
       </c>
       <c r="G42" s="16">
-        <v>22250</v>
+        <v>20897</v>
       </c>
       <c r="H42" s="16">
-        <v>22534</v>
+        <v>20832</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2759,28 +2762,28 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" s="16">
-        <v>4966</v>
+        <v>4190</v>
       </c>
       <c r="C43" s="16">
-        <v>6126</v>
+        <v>5633</v>
       </c>
       <c r="D43" s="17">
-        <v>-0.19</v>
+        <v>-0.26</v>
       </c>
       <c r="E43" s="16">
-        <v>4907</v>
+        <v>4008</v>
       </c>
       <c r="F43" s="16">
-        <v>5336</v>
+        <v>5633</v>
       </c>
       <c r="G43" s="16">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="H43" s="16">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="I43" s="16">
         <v>0</v>
@@ -2797,28 +2800,28 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="16">
-        <v>28164</v>
+        <v>24597</v>
       </c>
       <c r="C44" s="16">
-        <v>22516</v>
+        <v>26936</v>
       </c>
       <c r="D44" s="17">
-        <v>0.25</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E44" s="16">
-        <v>28150</v>
+        <v>24583</v>
       </c>
       <c r="F44" s="16">
-        <v>21994</v>
+        <v>24550</v>
       </c>
       <c r="G44" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" s="16">
-        <v>522</v>
+        <v>2386</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2835,22 +2838,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="16">
-        <v>7450</v>
+        <v>5048</v>
       </c>
       <c r="C45" s="16">
-        <v>5468</v>
+        <v>6377</v>
       </c>
       <c r="D45" s="17">
-        <v>0.36</v>
+        <v>-0.21</v>
       </c>
       <c r="E45" s="16">
-        <v>6420</v>
+        <v>3688</v>
       </c>
       <c r="F45" s="16">
-        <v>4568</v>
+        <v>5453</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2865,36 +2868,36 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>1030</v>
+        <v>1359</v>
       </c>
       <c r="L45" s="16">
-        <v>900</v>
+        <v>924</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="13">
-        <v>207602</v>
+        <v>197666</v>
       </c>
       <c r="C46" s="13">
-        <v>223095</v>
+        <v>215982</v>
       </c>
       <c r="D46" s="14">
-        <v>-6.9000000000000006E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E46" s="13">
-        <v>58132</v>
+        <v>53374</v>
       </c>
       <c r="F46" s="13">
-        <v>61625</v>
+        <v>58551</v>
       </c>
       <c r="G46" s="13">
-        <v>98540</v>
+        <v>91476</v>
       </c>
       <c r="H46" s="13">
-        <v>114122</v>
+        <v>103202</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2903,36 +2906,36 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>50930</v>
+        <v>52816</v>
       </c>
       <c r="L46" s="13">
-        <v>47348</v>
+        <v>54229</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="16">
-        <v>8670</v>
+        <v>10443</v>
       </c>
       <c r="C47" s="16">
-        <v>4198</v>
+        <v>5723</v>
       </c>
       <c r="D47" s="17">
-        <v>1.07</v>
+        <v>0.82</v>
       </c>
       <c r="E47" s="16">
-        <v>3484</v>
+        <v>3913</v>
       </c>
       <c r="F47" s="16">
-        <v>1039</v>
+        <v>1664</v>
       </c>
       <c r="G47" s="16">
-        <v>5073</v>
+        <v>6352</v>
       </c>
       <c r="H47" s="16">
-        <v>2885</v>
+        <v>3675</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2941,36 +2944,36 @@
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="L47" s="16">
-        <v>274</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="16">
-        <v>39776</v>
+        <v>37519</v>
       </c>
       <c r="C48" s="16">
-        <v>45909</v>
+        <v>47336</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.13</v>
+        <v>-0.21</v>
       </c>
       <c r="E48" s="16">
-        <v>19479</v>
+        <v>16690</v>
       </c>
       <c r="F48" s="16">
-        <v>24303</v>
+        <v>25131</v>
       </c>
       <c r="G48" s="16">
-        <v>3072</v>
+        <v>2960</v>
       </c>
       <c r="H48" s="16">
-        <v>4228</v>
+        <v>4066</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -2979,36 +2982,36 @@
         <v>0</v>
       </c>
       <c r="K48" s="16">
-        <v>17224</v>
+        <v>17869</v>
       </c>
       <c r="L48" s="16">
-        <v>17379</v>
+        <v>18139</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="16">
-        <v>19189</v>
+        <v>20667</v>
       </c>
       <c r="C49" s="16">
-        <v>15987</v>
+        <v>20411</v>
       </c>
       <c r="D49" s="17">
-        <v>0.2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E49" s="16">
-        <v>13313</v>
+        <v>13966</v>
       </c>
       <c r="F49" s="16">
-        <v>10846</v>
+        <v>13708</v>
       </c>
       <c r="G49" s="16">
-        <v>5876</v>
+        <v>6701</v>
       </c>
       <c r="H49" s="16">
-        <v>5086</v>
+        <v>6583</v>
       </c>
       <c r="I49" s="16">
         <v>0</v>
@@ -3020,33 +3023,33 @@
         <v>0</v>
       </c>
       <c r="L49" s="16">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="16">
-        <v>139967</v>
+        <v>129037</v>
       </c>
       <c r="C50" s="16">
-        <v>157000</v>
+        <v>142511</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.11</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="E50" s="16">
-        <v>21856</v>
+        <v>18805</v>
       </c>
       <c r="F50" s="16">
-        <v>25437</v>
+        <v>18048</v>
       </c>
       <c r="G50" s="16">
-        <v>84519</v>
+        <v>75464</v>
       </c>
       <c r="H50" s="16">
-        <v>101923</v>
+        <v>88879</v>
       </c>
       <c r="I50" s="16">
         <v>0</v>
@@ -3055,36 +3058,36 @@
         <v>0</v>
       </c>
       <c r="K50" s="16">
-        <v>33592</v>
+        <v>34769</v>
       </c>
       <c r="L50" s="16">
-        <v>29641</v>
+        <v>35585</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="13">
-        <v>51257</v>
+        <v>39188</v>
       </c>
       <c r="C51" s="13">
-        <v>59904</v>
+        <v>52394</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="E51" s="13">
-        <v>36415</v>
+        <v>32212</v>
       </c>
       <c r="F51" s="13">
-        <v>46552</v>
+        <v>40595</v>
       </c>
       <c r="G51" s="13">
-        <v>14779</v>
+        <v>6926</v>
       </c>
       <c r="H51" s="13">
-        <v>13302</v>
+        <v>11780</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3093,36 +3096,36 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L51" s="13">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="16">
-        <v>20814</v>
+        <v>11284</v>
       </c>
       <c r="C52" s="16">
-        <v>24427</v>
+        <v>17520</v>
       </c>
       <c r="D52" s="17">
-        <v>-0.15</v>
+        <v>-0.36</v>
       </c>
       <c r="E52" s="16">
-        <v>10049</v>
+        <v>6806</v>
       </c>
       <c r="F52" s="16">
-        <v>15164</v>
+        <v>10410</v>
       </c>
       <c r="G52" s="16">
-        <v>10765</v>
+        <v>4478</v>
       </c>
       <c r="H52" s="16">
-        <v>9262</v>
+        <v>7110</v>
       </c>
       <c r="I52" s="16">
         <v>0</v>
@@ -3139,28 +3142,28 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="16">
-        <v>5473</v>
+        <v>5367</v>
       </c>
       <c r="C53" s="16">
-        <v>7432</v>
+        <v>9248</v>
       </c>
       <c r="D53" s="17">
-        <v>-0.26</v>
+        <v>-0.42</v>
       </c>
       <c r="E53" s="16">
-        <v>4750</v>
+        <v>4501</v>
       </c>
       <c r="F53" s="16">
-        <v>6065</v>
+        <v>8096</v>
       </c>
       <c r="G53" s="16">
-        <v>723</v>
+        <v>867</v>
       </c>
       <c r="H53" s="16">
-        <v>1367</v>
+        <v>1152</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3177,28 +3180,28 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="16">
-        <v>1201</v>
+        <v>714</v>
       </c>
       <c r="C54" s="16">
-        <v>2334</v>
+        <v>1961</v>
       </c>
       <c r="D54" s="17">
-        <v>-0.49</v>
+        <v>-0.64</v>
       </c>
       <c r="E54" s="16">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="F54" s="16">
-        <v>1099</v>
+        <v>817</v>
       </c>
       <c r="G54" s="16">
-        <v>846</v>
+        <v>484</v>
       </c>
       <c r="H54" s="16">
-        <v>1234</v>
+        <v>1144</v>
       </c>
       <c r="I54" s="16">
         <v>0</v>
@@ -3215,13 +3218,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="16">
         <v>0</v>
       </c>
       <c r="C55" s="16">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="D55" s="17">
         <v>-1</v>
@@ -3230,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="16">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="G55" s="16">
         <v>0</v>
       </c>
       <c r="H55" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3253,22 +3256,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="16">
-        <v>13637</v>
+        <v>14068</v>
       </c>
       <c r="C56" s="16">
-        <v>16691</v>
+        <v>13846</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.18</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E56" s="16">
-        <v>13637</v>
+        <v>14068</v>
       </c>
       <c r="F56" s="16">
-        <v>16691</v>
+        <v>13846</v>
       </c>
       <c r="G56" s="16">
         <v>0</v>
@@ -3291,28 +3294,28 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="16">
-        <v>6492</v>
+        <v>4711</v>
       </c>
       <c r="C57" s="16">
-        <v>4656</v>
+        <v>4918</v>
       </c>
       <c r="D57" s="17">
-        <v>0.39</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="E57" s="16">
-        <v>4183</v>
+        <v>3692</v>
       </c>
       <c r="F57" s="16">
-        <v>3244</v>
+        <v>2552</v>
       </c>
       <c r="G57" s="16">
-        <v>2310</v>
+        <v>1019</v>
       </c>
       <c r="H57" s="16">
-        <v>1413</v>
+        <v>2366</v>
       </c>
       <c r="I57" s="16">
         <v>0</v>
@@ -3329,28 +3332,28 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="16">
-        <v>3640</v>
+        <v>3041</v>
       </c>
       <c r="C58" s="16">
-        <v>3823</v>
+        <v>4312</v>
       </c>
       <c r="D58" s="17">
-        <v>-4.8000000000000001E-2</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E58" s="16">
-        <v>3442</v>
+        <v>2913</v>
       </c>
       <c r="F58" s="16">
-        <v>3749</v>
+        <v>4285</v>
       </c>
       <c r="G58" s="16">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="H58" s="16">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3359,30 +3362,30 @@
         <v>0</v>
       </c>
       <c r="K58" s="16">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L58" s="16">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C59" s="16">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D59" s="17">
-        <v>-1</v>
+        <v>-0.98</v>
       </c>
       <c r="E59" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" s="16">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
@@ -3405,28 +3408,28 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>67165</v>
+        <v>57367</v>
       </c>
       <c r="C60" s="13">
-        <v>92764</v>
+        <v>71260</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.28000000000000003</v>
+        <v>-0.19</v>
       </c>
       <c r="E60" s="13">
-        <v>26544</v>
+        <v>22755</v>
       </c>
       <c r="F60" s="13">
-        <v>32811</v>
+        <v>28280</v>
       </c>
       <c r="G60" s="13">
-        <v>37624</v>
+        <v>31369</v>
       </c>
       <c r="H60" s="13">
-        <v>56379</v>
+        <v>39341</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3435,36 +3438,36 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>2997</v>
+        <v>3243</v>
       </c>
       <c r="L60" s="13">
-        <v>3573</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="16">
-        <v>55531</v>
+        <v>46220</v>
       </c>
       <c r="C61" s="16">
-        <v>74928</v>
+        <v>53927</v>
       </c>
       <c r="D61" s="17">
-        <v>-0.26</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E61" s="16">
-        <v>19409</v>
+        <v>15575</v>
       </c>
       <c r="F61" s="16">
-        <v>22579</v>
+        <v>18598</v>
       </c>
       <c r="G61" s="16">
-        <v>33125</v>
+        <v>27402</v>
       </c>
       <c r="H61" s="16">
-        <v>48776</v>
+        <v>31689</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3473,36 +3476,36 @@
         <v>0</v>
       </c>
       <c r="K61" s="16">
-        <v>2997</v>
+        <v>3243</v>
       </c>
       <c r="L61" s="16">
-        <v>3573</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" s="16">
-        <v>7841</v>
+        <v>7717</v>
       </c>
       <c r="C62" s="16">
-        <v>7998</v>
+        <v>8520</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.02</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="E62" s="16">
-        <v>4492</v>
+        <v>4272</v>
       </c>
       <c r="F62" s="16">
-        <v>4499</v>
+        <v>4392</v>
       </c>
       <c r="G62" s="16">
-        <v>3349</v>
+        <v>3445</v>
       </c>
       <c r="H62" s="16">
-        <v>3499</v>
+        <v>4128</v>
       </c>
       <c r="I62" s="16">
         <v>0</v>
@@ -3519,28 +3522,28 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="16">
-        <v>3793</v>
+        <v>3431</v>
       </c>
       <c r="C63" s="16">
-        <v>9837</v>
+        <v>8813</v>
       </c>
       <c r="D63" s="17">
         <v>-0.61</v>
       </c>
       <c r="E63" s="16">
-        <v>2643</v>
+        <v>2908</v>
       </c>
       <c r="F63" s="16">
-        <v>5733</v>
+        <v>5290</v>
       </c>
       <c r="G63" s="16">
-        <v>1150</v>
+        <v>523</v>
       </c>
       <c r="H63" s="16">
-        <v>4104</v>
+        <v>3523</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3557,22 +3560,22 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="13">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="C64" s="13">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="E64" s="13">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="F64" s="13">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3595,22 +3598,22 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" s="16">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="C65" s="16">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="D65" s="17">
-        <v>-0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="E65" s="16">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="F65" s="16">
-        <v>1279</v>
+        <v>1374</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66" s="16">
         <v>0</v>
@@ -3671,45 +3674,45 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>767888</v>
+        <v>697714</v>
       </c>
       <c r="C67" s="13">
-        <v>804958</v>
+        <v>758502</v>
       </c>
       <c r="D67" s="14">
-        <v>-4.5999999999999999E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="E67" s="13">
-        <v>356539</v>
+        <v>326505</v>
       </c>
       <c r="F67" s="13">
-        <v>367001</v>
+        <v>354358</v>
       </c>
       <c r="G67" s="13">
-        <v>350117</v>
+        <v>307453</v>
       </c>
       <c r="H67" s="13">
-        <v>381566</v>
+        <v>340122</v>
       </c>
       <c r="I67" s="13">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="J67" s="13">
-        <v>523</v>
+        <v>749</v>
       </c>
       <c r="K67" s="13">
-        <v>60657</v>
+        <v>63167</v>
       </c>
       <c r="L67" s="13">
-        <v>55868</v>
+        <v>63274</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
